--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2077,28 +2077,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1250.576163667408</v>
+        <v>1465.787980969805</v>
       </c>
       <c r="AB2" t="n">
-        <v>1711.093478656278</v>
+        <v>2005.555781564711</v>
       </c>
       <c r="AC2" t="n">
-        <v>1547.789118588103</v>
+        <v>1814.148352587392</v>
       </c>
       <c r="AD2" t="n">
-        <v>1250576.163667408</v>
+        <v>1465787.980969805</v>
       </c>
       <c r="AE2" t="n">
-        <v>1711093.478656278</v>
+        <v>2005555.781564711</v>
       </c>
       <c r="AF2" t="n">
         <v>3.703683014302016e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.37630208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1547789.118588103</v>
+        <v>1814148.352587392</v>
       </c>
     </row>
     <row r="3">
@@ -2183,28 +2183,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>631.5324378994036</v>
+        <v>768.5375702654997</v>
       </c>
       <c r="AB3" t="n">
-        <v>864.0905427787768</v>
+        <v>1051.547009121928</v>
       </c>
       <c r="AC3" t="n">
-        <v>781.6229541346634</v>
+        <v>951.1888384268273</v>
       </c>
       <c r="AD3" t="n">
-        <v>631532.4378994036</v>
+        <v>768537.5702654996</v>
       </c>
       <c r="AE3" t="n">
-        <v>864090.5427787768</v>
+        <v>1051547.009121928</v>
       </c>
       <c r="AF3" t="n">
         <v>5.836259981334213e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.89453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>781622.9541346633</v>
+        <v>951188.8384268272</v>
       </c>
     </row>
     <row r="4">
@@ -2289,28 +2289,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>511.6115251650425</v>
+        <v>628.9722951827374</v>
       </c>
       <c r="AB4" t="n">
-        <v>700.0094594383417</v>
+        <v>860.5876425683089</v>
       </c>
       <c r="AC4" t="n">
-        <v>633.2015390989925</v>
+        <v>778.4543658039311</v>
       </c>
       <c r="AD4" t="n">
-        <v>511611.5251650425</v>
+        <v>628972.2951827374</v>
       </c>
       <c r="AE4" t="n">
-        <v>700009.4594383417</v>
+        <v>860587.6425683089</v>
       </c>
       <c r="AF4" t="n">
         <v>6.692810508562948e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.45052083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>633201.5390989925</v>
+        <v>778454.365803931</v>
       </c>
     </row>
     <row r="5">
@@ -2395,28 +2395,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>478.4880790194791</v>
+        <v>595.9161688448785</v>
       </c>
       <c r="AB5" t="n">
-        <v>654.6884991186715</v>
+        <v>815.3587921794802</v>
       </c>
       <c r="AC5" t="n">
-        <v>592.2059476238643</v>
+        <v>737.542093417122</v>
       </c>
       <c r="AD5" t="n">
-        <v>478488.0790194791</v>
+        <v>595916.1688448784</v>
       </c>
       <c r="AE5" t="n">
-        <v>654688.4991186715</v>
+        <v>815358.7921794802</v>
       </c>
       <c r="AF5" t="n">
         <v>6.934611853570103e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.63020833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>592205.9476238643</v>
+        <v>737542.093417122</v>
       </c>
     </row>
   </sheetData>
@@ -2692,28 +2692,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>904.7756188170607</v>
+        <v>1079.025503519007</v>
       </c>
       <c r="AB2" t="n">
-        <v>1237.953917548684</v>
+        <v>1476.370297160252</v>
       </c>
       <c r="AC2" t="n">
-        <v>1119.805333137072</v>
+        <v>1335.467588098003</v>
       </c>
       <c r="AD2" t="n">
-        <v>904775.6188170607</v>
+        <v>1079025.503519007</v>
       </c>
       <c r="AE2" t="n">
-        <v>1237953.917548684</v>
+        <v>1476370.297160252</v>
       </c>
       <c r="AF2" t="n">
         <v>4.834630133150254e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.52083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1119805.333137072</v>
+        <v>1335467.588098003</v>
       </c>
     </row>
     <row r="3">
@@ -2798,28 +2798,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>519.438923663326</v>
+        <v>645.2518971959508</v>
       </c>
       <c r="AB3" t="n">
-        <v>710.7192513841437</v>
+        <v>882.86211224814</v>
       </c>
       <c r="AC3" t="n">
-        <v>642.8892035327744</v>
+        <v>798.6029913599335</v>
       </c>
       <c r="AD3" t="n">
-        <v>519438.9236633261</v>
+        <v>645251.8971959508</v>
       </c>
       <c r="AE3" t="n">
-        <v>710719.2513841437</v>
+        <v>882862.1122481399</v>
       </c>
       <c r="AF3" t="n">
         <v>6.972334334320576e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.62890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>642889.2035327745</v>
+        <v>798602.9913599335</v>
       </c>
     </row>
     <row r="4">
@@ -2904,28 +2904,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>458.1970834261606</v>
+        <v>574.3295078086771</v>
       </c>
       <c r="AB4" t="n">
-        <v>626.9254637723459</v>
+        <v>785.8229702134772</v>
       </c>
       <c r="AC4" t="n">
-        <v>567.0925774053272</v>
+        <v>710.8251288457678</v>
       </c>
       <c r="AD4" t="n">
-        <v>458197.0834261606</v>
+        <v>574329.5078086772</v>
       </c>
       <c r="AE4" t="n">
-        <v>626925.4637723459</v>
+        <v>785822.9702134773</v>
       </c>
       <c r="AF4" t="n">
         <v>7.470885783014048e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.98828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>567092.5774053272</v>
+        <v>710825.1288457678</v>
       </c>
     </row>
   </sheetData>
@@ -3201,28 +3201,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>450.1154311856795</v>
+        <v>581.0238447042892</v>
       </c>
       <c r="AB2" t="n">
-        <v>615.867790639586</v>
+        <v>794.9824572873539</v>
       </c>
       <c r="AC2" t="n">
-        <v>557.0902330768162</v>
+        <v>719.1104473287347</v>
       </c>
       <c r="AD2" t="n">
-        <v>450115.4311856796</v>
+        <v>581023.8447042892</v>
       </c>
       <c r="AE2" t="n">
-        <v>615867.790639586</v>
+        <v>794982.4572873539</v>
       </c>
       <c r="AF2" t="n">
         <v>9.30514066033598e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.76171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>557090.2330768162</v>
+        <v>719110.4473287347</v>
       </c>
     </row>
     <row r="3">
@@ -3307,28 +3307,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>451.0390208096072</v>
+        <v>572.6602834260519</v>
       </c>
       <c r="AB3" t="n">
-        <v>617.1314867089424</v>
+        <v>783.5390637721871</v>
       </c>
       <c r="AC3" t="n">
-        <v>558.2333237669218</v>
+        <v>708.7591952297516</v>
       </c>
       <c r="AD3" t="n">
-        <v>451039.0208096072</v>
+        <v>572660.283426052</v>
       </c>
       <c r="AE3" t="n">
-        <v>617131.4867089423</v>
+        <v>783539.0637721871</v>
       </c>
       <c r="AF3" t="n">
         <v>9.320972617301694e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.71614583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>558233.3237669218</v>
+        <v>708759.1952297516</v>
       </c>
     </row>
   </sheetData>
@@ -3604,28 +3604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>546.2206191526864</v>
+        <v>678.8751157249056</v>
       </c>
       <c r="AB2" t="n">
-        <v>747.3631486777034</v>
+        <v>928.8668831911676</v>
       </c>
       <c r="AC2" t="n">
-        <v>676.0358586986698</v>
+        <v>840.2171315322602</v>
       </c>
       <c r="AD2" t="n">
-        <v>546220.6191526863</v>
+        <v>678875.1157249056</v>
       </c>
       <c r="AE2" t="n">
-        <v>747363.1486777035</v>
+        <v>928866.8831911676</v>
       </c>
       <c r="AF2" t="n">
         <v>7.555102533999139e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.47395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>676035.8586986698</v>
+        <v>840217.1315322602</v>
       </c>
     </row>
     <row r="3">
@@ -3710,28 +3710,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>450.7256647697116</v>
+        <v>564.4491865037537</v>
       </c>
       <c r="AB3" t="n">
-        <v>616.7027391508643</v>
+        <v>772.3042787150687</v>
       </c>
       <c r="AC3" t="n">
-        <v>557.8454952740356</v>
+        <v>698.5966422903647</v>
       </c>
       <c r="AD3" t="n">
-        <v>450725.6647697116</v>
+        <v>564449.1865037538</v>
       </c>
       <c r="AE3" t="n">
-        <v>616702.7391508643</v>
+        <v>772304.2787150687</v>
       </c>
       <c r="AF3" t="n">
         <v>8.580836437855447e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.19270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>557845.4952740356</v>
+        <v>698596.6422903647</v>
       </c>
     </row>
   </sheetData>
@@ -4007,28 +4007,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>466.6863834246916</v>
+        <v>605.3867004547877</v>
       </c>
       <c r="AB2" t="n">
-        <v>638.5408985518196</v>
+        <v>828.316791338525</v>
       </c>
       <c r="AC2" t="n">
-        <v>577.5994513918129</v>
+        <v>749.2633993230936</v>
       </c>
       <c r="AD2" t="n">
-        <v>466686.3834246916</v>
+        <v>605386.7004547877</v>
       </c>
       <c r="AE2" t="n">
-        <v>638540.8985518196</v>
+        <v>828316.791338525</v>
       </c>
       <c r="AF2" t="n">
         <v>9.864119140350723e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.83203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>577599.4513918129</v>
+        <v>749263.3993230936</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>985.3598515018709</v>
+        <v>1169.728011553094</v>
       </c>
       <c r="AB2" t="n">
-        <v>1348.212819833479</v>
+        <v>1600.473470164733</v>
       </c>
       <c r="AC2" t="n">
-        <v>1219.541280537148</v>
+        <v>1447.726528450833</v>
       </c>
       <c r="AD2" t="n">
-        <v>985359.8515018709</v>
+        <v>1169728.011553094</v>
       </c>
       <c r="AE2" t="n">
-        <v>1348212.819833479</v>
+        <v>1600473.470164733</v>
       </c>
       <c r="AF2" t="n">
         <v>4.514997516824624e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.11588541666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1219541.280537148</v>
+        <v>1447726.528450833</v>
       </c>
     </row>
     <row r="3">
@@ -4410,28 +4410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>551.8090558559832</v>
+        <v>677.9236437142458</v>
       </c>
       <c r="AB3" t="n">
-        <v>755.0094943195812</v>
+        <v>927.5650372102004</v>
       </c>
       <c r="AC3" t="n">
-        <v>682.9524478442003</v>
+        <v>839.0395319045642</v>
       </c>
       <c r="AD3" t="n">
-        <v>551809.0558559832</v>
+        <v>677923.6437142459</v>
       </c>
       <c r="AE3" t="n">
-        <v>755009.4943195812</v>
+        <v>927565.0372102004</v>
       </c>
       <c r="AF3" t="n">
         <v>6.653314755836149e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.18880208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>682952.4478442003</v>
+        <v>839039.5319045642</v>
       </c>
     </row>
     <row r="4">
@@ -4516,28 +4516,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>462.9231190531979</v>
+        <v>579.3960980203382</v>
       </c>
       <c r="AB4" t="n">
-        <v>633.3918342152352</v>
+        <v>792.7553024632567</v>
       </c>
       <c r="AC4" t="n">
-        <v>572.941806528755</v>
+        <v>717.0958490352178</v>
       </c>
       <c r="AD4" t="n">
-        <v>462923.1190531979</v>
+        <v>579396.0980203382</v>
       </c>
       <c r="AE4" t="n">
-        <v>633391.8342152352</v>
+        <v>792755.3024632568</v>
       </c>
       <c r="AF4" t="n">
         <v>7.327218034003016e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.87109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>572941.806528755</v>
+        <v>717095.8490352179</v>
       </c>
     </row>
     <row r="5">
@@ -4622,28 +4622,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>463.9351128982667</v>
+        <v>580.4080918654071</v>
       </c>
       <c r="AB5" t="n">
-        <v>634.7764888400757</v>
+        <v>794.1399570880973</v>
       </c>
       <c r="AC5" t="n">
-        <v>574.1943116595756</v>
+        <v>718.3483541660386</v>
       </c>
       <c r="AD5" t="n">
-        <v>463935.1128982666</v>
+        <v>580408.0918654071</v>
       </c>
       <c r="AE5" t="n">
-        <v>634776.4888400757</v>
+        <v>794139.9570880972</v>
       </c>
       <c r="AF5" t="n">
         <v>7.328505091447949e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.86458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>574194.3116595757</v>
+        <v>718348.3541660386</v>
       </c>
     </row>
   </sheetData>
@@ -4919,28 +4919,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>487.1241847014291</v>
+        <v>624.9669601483566</v>
       </c>
       <c r="AB2" t="n">
-        <v>666.5047999108086</v>
+        <v>855.1073664713583</v>
       </c>
       <c r="AC2" t="n">
-        <v>602.8945172526822</v>
+        <v>773.4971195660576</v>
       </c>
       <c r="AD2" t="n">
-        <v>487124.1847014291</v>
+        <v>624966.9601483566</v>
       </c>
       <c r="AE2" t="n">
-        <v>666504.7999108087</v>
+        <v>855107.3664713583</v>
       </c>
       <c r="AF2" t="n">
         <v>1.013563350701253e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.63541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>602894.5172526822</v>
+        <v>773497.1195660576</v>
       </c>
     </row>
   </sheetData>
@@ -5216,28 +5216,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>710.9570087448643</v>
+        <v>864.2706240558678</v>
       </c>
       <c r="AB2" t="n">
-        <v>972.7627445743042</v>
+        <v>1182.533196762168</v>
       </c>
       <c r="AC2" t="n">
-        <v>879.923633513219</v>
+        <v>1069.673888158951</v>
       </c>
       <c r="AD2" t="n">
-        <v>710957.0087448643</v>
+        <v>864270.6240558678</v>
       </c>
       <c r="AE2" t="n">
-        <v>972762.7445743042</v>
+        <v>1182533.196762168</v>
       </c>
       <c r="AF2" t="n">
         <v>5.977509307199537e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.23697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>879923.633513219</v>
+        <v>1069673.888158951</v>
       </c>
     </row>
     <row r="3">
@@ -5322,28 +5322,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>454.9682003541036</v>
+        <v>569.928040530735</v>
       </c>
       <c r="AB3" t="n">
-        <v>622.5075635048898</v>
+        <v>779.8006885047649</v>
       </c>
       <c r="AC3" t="n">
-        <v>563.0963153388351</v>
+        <v>705.3776052510095</v>
       </c>
       <c r="AD3" t="n">
-        <v>454968.2003541036</v>
+        <v>569928.0405307349</v>
       </c>
       <c r="AE3" t="n">
-        <v>622507.5635048898</v>
+        <v>779800.6885047649</v>
       </c>
       <c r="AF3" t="n">
         <v>7.948595869535201e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.49609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>563096.3153388351</v>
+        <v>705377.6052510096</v>
       </c>
     </row>
     <row r="4">
@@ -5428,28 +5428,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>454.810521563555</v>
+        <v>569.7703617401866</v>
       </c>
       <c r="AB4" t="n">
-        <v>622.2918204273642</v>
+        <v>779.5849454272392</v>
       </c>
       <c r="AC4" t="n">
-        <v>562.9011624778311</v>
+        <v>705.1824523900056</v>
       </c>
       <c r="AD4" t="n">
-        <v>454810.5215635551</v>
+        <v>569770.3617401866</v>
       </c>
       <c r="AE4" t="n">
-        <v>622291.8204273642</v>
+        <v>779584.9454272392</v>
       </c>
       <c r="AF4" t="n">
         <v>7.967239732537502e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.4375</v>
       </c>
       <c r="AH4" t="n">
-        <v>562901.1624778311</v>
+        <v>705182.4523900056</v>
       </c>
     </row>
   </sheetData>
@@ -5725,28 +5725,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>839.2335366650485</v>
+        <v>1003.234754225653</v>
       </c>
       <c r="AB2" t="n">
-        <v>1148.276349235709</v>
+        <v>1372.67005032521</v>
       </c>
       <c r="AC2" t="n">
-        <v>1038.68646608063</v>
+        <v>1241.664347276687</v>
       </c>
       <c r="AD2" t="n">
-        <v>839233.5366650486</v>
+        <v>1003234.754225653</v>
       </c>
       <c r="AE2" t="n">
-        <v>1148276.349235709</v>
+        <v>1372670.05032521</v>
       </c>
       <c r="AF2" t="n">
         <v>5.18090025550957e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.0234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1038686.46608063</v>
+        <v>1241664.347276687</v>
       </c>
     </row>
     <row r="3">
@@ -5831,28 +5831,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>498.2285466544241</v>
+        <v>613.9743120478789</v>
       </c>
       <c r="AB3" t="n">
-        <v>681.698277824771</v>
+        <v>840.0667403788775</v>
       </c>
       <c r="AC3" t="n">
-        <v>616.637950958716</v>
+        <v>759.891949718192</v>
       </c>
       <c r="AD3" t="n">
-        <v>498228.546654424</v>
+        <v>613974.312047879</v>
       </c>
       <c r="AE3" t="n">
-        <v>681698.277824771</v>
+        <v>840066.7403788775</v>
       </c>
       <c r="AF3" t="n">
         <v>7.302968409914044e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.13411458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>616637.950958716</v>
+        <v>759891.949718192</v>
       </c>
     </row>
     <row r="4">
@@ -5937,28 +5937,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>463.571032109245</v>
+        <v>569.6998724880508</v>
       </c>
       <c r="AB4" t="n">
-        <v>634.2783374424256</v>
+        <v>779.4884989227007</v>
       </c>
       <c r="AC4" t="n">
-        <v>573.7437031321573</v>
+        <v>705.0952106044969</v>
       </c>
       <c r="AD4" t="n">
-        <v>463571.032109245</v>
+        <v>569699.8724880508</v>
       </c>
       <c r="AE4" t="n">
-        <v>634278.3374424255</v>
+        <v>779488.4989227008</v>
       </c>
       <c r="AF4" t="n">
         <v>7.630294309209144e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.09895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>573743.7031321573</v>
+        <v>705095.2106044969</v>
       </c>
     </row>
   </sheetData>
@@ -6234,28 +6234,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1152.978194239793</v>
+        <v>1357.963563333207</v>
       </c>
       <c r="AB2" t="n">
-        <v>1577.555631166886</v>
+        <v>1858.025656476735</v>
       </c>
       <c r="AC2" t="n">
-        <v>1426.995935841552</v>
+        <v>1680.698295577982</v>
       </c>
       <c r="AD2" t="n">
-        <v>1152978.194239793</v>
+        <v>1357963.563333207</v>
       </c>
       <c r="AE2" t="n">
-        <v>1577555.631166886</v>
+        <v>1858025.656476735</v>
       </c>
       <c r="AF2" t="n">
         <v>3.952654961619895e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.53385416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1426995.935841552</v>
+        <v>1680698.295577982</v>
       </c>
     </row>
     <row r="3">
@@ -6340,28 +6340,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>608.0686928251405</v>
+        <v>734.9182277154615</v>
       </c>
       <c r="AB3" t="n">
-        <v>831.9864116207943</v>
+        <v>1005.547541464251</v>
       </c>
       <c r="AC3" t="n">
-        <v>752.5827961959676</v>
+        <v>909.57949540174</v>
       </c>
       <c r="AD3" t="n">
-        <v>608068.6928251404</v>
+        <v>734918.2277154615</v>
       </c>
       <c r="AE3" t="n">
-        <v>831986.4116207943</v>
+        <v>1005547.541464251</v>
       </c>
       <c r="AF3" t="n">
         <v>6.088959137638618e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.31510416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>752582.7961959676</v>
+        <v>909579.4954017401</v>
       </c>
     </row>
     <row r="4">
@@ -6446,28 +6446,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>495.5743227024345</v>
+        <v>612.6268571972037</v>
       </c>
       <c r="AB4" t="n">
-        <v>678.0666515175626</v>
+        <v>838.223093206671</v>
       </c>
       <c r="AC4" t="n">
-        <v>613.352921969248</v>
+        <v>758.2242576445259</v>
       </c>
       <c r="AD4" t="n">
-        <v>495574.3227024345</v>
+        <v>612626.8571972037</v>
       </c>
       <c r="AE4" t="n">
-        <v>678066.6515175626</v>
+        <v>838223.0932066711</v>
       </c>
       <c r="AF4" t="n">
         <v>6.925514194584197e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.13802083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>613352.921969248</v>
+        <v>758224.2576445258</v>
       </c>
     </row>
     <row r="5">
@@ -6552,28 +6552,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>474.6446753693942</v>
+        <v>591.7645296718679</v>
       </c>
       <c r="AB5" t="n">
-        <v>649.4297846856234</v>
+        <v>809.6783363055733</v>
       </c>
       <c r="AC5" t="n">
-        <v>587.4491175156542</v>
+        <v>732.4037722792509</v>
       </c>
       <c r="AD5" t="n">
-        <v>474644.6753693942</v>
+        <v>591764.5296718678</v>
       </c>
       <c r="AE5" t="n">
-        <v>649429.7846856234</v>
+        <v>809678.3363055733</v>
       </c>
       <c r="AF5" t="n">
         <v>7.042666359075548e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.75390625</v>
       </c>
       <c r="AH5" t="n">
-        <v>587449.1175156542</v>
+        <v>732403.7722792509</v>
       </c>
     </row>
   </sheetData>
@@ -6849,28 +6849,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>596.1146311246016</v>
+        <v>738.8765955439117</v>
       </c>
       <c r="AB2" t="n">
-        <v>815.6303370261353</v>
+        <v>1010.963554958</v>
       </c>
       <c r="AC2" t="n">
-        <v>737.7877224047279</v>
+        <v>914.4786121690686</v>
       </c>
       <c r="AD2" t="n">
-        <v>596114.6311246016</v>
+        <v>738876.5955439117</v>
       </c>
       <c r="AE2" t="n">
-        <v>815630.3370261353</v>
+        <v>1010963.554958</v>
       </c>
       <c r="AF2" t="n">
         <v>6.959347310155123e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.70442708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>737787.7224047279</v>
+        <v>914478.6121690685</v>
       </c>
     </row>
     <row r="3">
@@ -6955,28 +6955,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>444.8443843570132</v>
+        <v>568.5326993791303</v>
       </c>
       <c r="AB3" t="n">
-        <v>608.6557118264304</v>
+        <v>777.8915211830323</v>
       </c>
       <c r="AC3" t="n">
-        <v>550.566464943372</v>
+        <v>703.6506461789301</v>
       </c>
       <c r="AD3" t="n">
-        <v>444844.3843570132</v>
+        <v>568532.6993791304</v>
       </c>
       <c r="AE3" t="n">
-        <v>608655.7118264304</v>
+        <v>777891.5211830323</v>
       </c>
       <c r="AF3" t="n">
         <v>8.37042385893404e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.8671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>550566.4649433721</v>
+        <v>703650.6461789301</v>
       </c>
     </row>
   </sheetData>
@@ -7252,28 +7252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>459.7929002583895</v>
+        <v>581.9035488243129</v>
       </c>
       <c r="AB2" t="n">
-        <v>629.1089307646714</v>
+        <v>796.1861072741769</v>
       </c>
       <c r="AC2" t="n">
-        <v>569.0676573724202</v>
+        <v>720.1992226501486</v>
       </c>
       <c r="AD2" t="n">
-        <v>459792.9002583895</v>
+        <v>581903.5488243129</v>
       </c>
       <c r="AE2" t="n">
-        <v>629108.9307646714</v>
+        <v>796186.1072741769</v>
       </c>
       <c r="AF2" t="n">
         <v>8.910004778649545e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.49479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>569067.6573724202</v>
+        <v>720199.2226501486</v>
       </c>
     </row>
     <row r="3">
@@ -7358,28 +7358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>453.1867756855068</v>
+        <v>565.964821720345</v>
       </c>
       <c r="AB3" t="n">
-        <v>620.0701396824061</v>
+        <v>774.3780376835152</v>
       </c>
       <c r="AC3" t="n">
-        <v>560.8915158250232</v>
+        <v>700.4724846134018</v>
       </c>
       <c r="AD3" t="n">
-        <v>453186.7756855068</v>
+        <v>565964.8217203449</v>
       </c>
       <c r="AE3" t="n">
-        <v>620070.1396824061</v>
+        <v>774378.0376835152</v>
       </c>
       <c r="AF3" t="n">
         <v>9.061417992711721e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.06510416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>560891.5158250233</v>
+        <v>700472.4846134018</v>
       </c>
     </row>
   </sheetData>
@@ -12492,28 +12492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>457.3153016305518</v>
+        <v>587.5646800589031</v>
       </c>
       <c r="AB2" t="n">
-        <v>625.7189710181266</v>
+        <v>803.9319167808269</v>
       </c>
       <c r="AC2" t="n">
-        <v>566.0012306262472</v>
+        <v>727.2057829687958</v>
       </c>
       <c r="AD2" t="n">
-        <v>457315.3016305518</v>
+        <v>587564.6800589032</v>
       </c>
       <c r="AE2" t="n">
-        <v>625718.9710181266</v>
+        <v>803931.9167808269</v>
       </c>
       <c r="AF2" t="n">
         <v>9.586692787050225e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.60807291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>566001.2306262472</v>
+        <v>727205.7829687959</v>
       </c>
     </row>
   </sheetData>
@@ -12789,28 +12789,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>524.1544621002172</v>
+        <v>679.1214593686486</v>
       </c>
       <c r="AB2" t="n">
-        <v>717.1712591083716</v>
+        <v>929.2039414324511</v>
       </c>
       <c r="AC2" t="n">
-        <v>648.7254406952518</v>
+        <v>840.5220214080601</v>
       </c>
       <c r="AD2" t="n">
-        <v>524154.4621002172</v>
+        <v>679121.4593686486</v>
       </c>
       <c r="AE2" t="n">
-        <v>717171.2591083716</v>
+        <v>929203.9414324511</v>
       </c>
       <c r="AF2" t="n">
         <v>1.025411327316283e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.90364583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>648725.4406952518</v>
+        <v>840522.0214080601</v>
       </c>
     </row>
   </sheetData>
@@ -13086,28 +13086,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>767.8687673623344</v>
+        <v>931.3820002112459</v>
       </c>
       <c r="AB2" t="n">
-        <v>1050.631923484316</v>
+        <v>1274.357942362912</v>
       </c>
       <c r="AC2" t="n">
-        <v>950.3610872781379</v>
+        <v>1152.735008916401</v>
       </c>
       <c r="AD2" t="n">
-        <v>767868.7673623344</v>
+        <v>931382.0002112458</v>
       </c>
       <c r="AE2" t="n">
-        <v>1050631.923484316</v>
+        <v>1274357.942362912</v>
       </c>
       <c r="AF2" t="n">
         <v>5.563174667051298e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>950361.0872781379</v>
+        <v>1152735.008916401</v>
       </c>
     </row>
     <row r="3">
@@ -13192,28 +13192,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>467.8887399476945</v>
+        <v>583.3339622543009</v>
       </c>
       <c r="AB3" t="n">
-        <v>640.1860157908183</v>
+        <v>798.1432620344732</v>
       </c>
       <c r="AC3" t="n">
-        <v>579.0875609504582</v>
+        <v>721.9695893070062</v>
       </c>
       <c r="AD3" t="n">
-        <v>467888.7399476945</v>
+        <v>583333.9622543009</v>
       </c>
       <c r="AE3" t="n">
-        <v>640186.0157908183</v>
+        <v>798143.2620344732</v>
       </c>
       <c r="AF3" t="n">
         <v>7.662449094805193e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.65234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>579087.5609504582</v>
+        <v>721969.5893070062</v>
       </c>
     </row>
     <row r="4">
@@ -13298,28 +13298,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>459.1468773021865</v>
+        <v>574.4906143823075</v>
       </c>
       <c r="AB4" t="n">
-        <v>628.225013655473</v>
+        <v>786.0434033350386</v>
       </c>
       <c r="AC4" t="n">
-        <v>568.2681000715382</v>
+        <v>711.0245241395874</v>
       </c>
       <c r="AD4" t="n">
-        <v>459146.8773021864</v>
+        <v>574490.6143823075</v>
       </c>
       <c r="AE4" t="n">
-        <v>628225.013655473</v>
+        <v>786043.4033350387</v>
       </c>
       <c r="AF4" t="n">
         <v>7.794958659532796e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.24869791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>568268.1000715382</v>
+        <v>711024.5241395873</v>
       </c>
     </row>
   </sheetData>
@@ -13595,28 +13595,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1060.15710283119</v>
+        <v>1254.849513271608</v>
       </c>
       <c r="AB2" t="n">
-        <v>1450.553718924092</v>
+        <v>1716.940464111623</v>
       </c>
       <c r="AC2" t="n">
-        <v>1312.114907854907</v>
+        <v>1553.078075957884</v>
       </c>
       <c r="AD2" t="n">
-        <v>1060157.10283119</v>
+        <v>1254849.513271607</v>
       </c>
       <c r="AE2" t="n">
-        <v>1450553.718924092</v>
+        <v>1716940.464111622</v>
       </c>
       <c r="AF2" t="n">
         <v>4.225948195823332e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>1312114.907854907</v>
+        <v>1553078.075957885</v>
       </c>
     </row>
     <row r="3">
@@ -13701,28 +13701,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>573.4452290865186</v>
+        <v>700.0175033949974</v>
       </c>
       <c r="AB3" t="n">
-        <v>784.6130610541958</v>
+        <v>957.794830737702</v>
       </c>
       <c r="AC3" t="n">
-        <v>709.7306917185301</v>
+        <v>866.3842363655828</v>
       </c>
       <c r="AD3" t="n">
-        <v>573445.2290865185</v>
+        <v>700017.5033949974</v>
       </c>
       <c r="AE3" t="n">
-        <v>784613.0610541957</v>
+        <v>957794.830737702</v>
       </c>
       <c r="AF3" t="n">
         <v>6.371623083345535e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>709730.6917185301</v>
+        <v>866384.2363655828</v>
       </c>
     </row>
     <row r="4">
@@ -13807,28 +13807,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>470.9747654679969</v>
+        <v>587.7765455647352</v>
       </c>
       <c r="AB4" t="n">
-        <v>644.4084520535333</v>
+        <v>804.2218005127527</v>
       </c>
       <c r="AC4" t="n">
-        <v>582.9070138224862</v>
+        <v>727.4680006042011</v>
       </c>
       <c r="AD4" t="n">
-        <v>470974.7654679969</v>
+        <v>587776.5455647352</v>
       </c>
       <c r="AE4" t="n">
-        <v>644408.4520535333</v>
+        <v>804221.8005127527</v>
       </c>
       <c r="AF4" t="n">
         <v>7.153675044108319e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>582907.0138224862</v>
+        <v>727468.0006042011</v>
       </c>
     </row>
     <row r="5">
@@ -13913,28 +13913,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>469.2688772241809</v>
+        <v>586.0706573209191</v>
       </c>
       <c r="AB5" t="n">
-        <v>642.0743804998664</v>
+        <v>801.8877289590857</v>
       </c>
       <c r="AC5" t="n">
-        <v>580.7957027820112</v>
+        <v>725.356689563726</v>
       </c>
       <c r="AD5" t="n">
-        <v>469268.8772241808</v>
+        <v>586070.6573209191</v>
       </c>
       <c r="AE5" t="n">
-        <v>642074.3804998663</v>
+        <v>801887.7289590858</v>
       </c>
       <c r="AF5" t="n">
         <v>7.180590309403146e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.80598958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>580795.7027820111</v>
+        <v>725356.6895637261</v>
       </c>
     </row>
   </sheetData>
@@ -14210,28 +14210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>613.7219680952935</v>
+        <v>803.2766937702119</v>
       </c>
       <c r="AB2" t="n">
-        <v>839.7214722503206</v>
+        <v>1099.078610483041</v>
       </c>
       <c r="AC2" t="n">
-        <v>759.5796334952375</v>
+        <v>994.1840904650566</v>
       </c>
       <c r="AD2" t="n">
-        <v>613721.9680952935</v>
+        <v>803276.6937702119</v>
       </c>
       <c r="AE2" t="n">
-        <v>839721.4722503206</v>
+        <v>1099078.610483041</v>
       </c>
       <c r="AF2" t="n">
         <v>9.947487318367247e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.94140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>759579.6334952376</v>
+        <v>994184.0904650566</v>
       </c>
     </row>
   </sheetData>
@@ -14507,28 +14507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>498.3316173132883</v>
+        <v>621.0246996922729</v>
       </c>
       <c r="AB2" t="n">
-        <v>681.8393036473857</v>
+        <v>849.7133917950879</v>
       </c>
       <c r="AC2" t="n">
-        <v>616.7655174747515</v>
+        <v>768.6179382623995</v>
       </c>
       <c r="AD2" t="n">
-        <v>498331.6173132883</v>
+        <v>621024.6996922728</v>
       </c>
       <c r="AE2" t="n">
-        <v>681839.3036473857</v>
+        <v>849713.3917950878</v>
       </c>
       <c r="AF2" t="n">
         <v>8.247071600842511e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.26302083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>616765.5174747515</v>
+        <v>768617.9382623995</v>
       </c>
     </row>
     <row r="3">
@@ -14613,28 +14613,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>447.3082920613026</v>
+        <v>570.0345288292107</v>
       </c>
       <c r="AB3" t="n">
-        <v>612.0269390473757</v>
+        <v>779.9463904926716</v>
       </c>
       <c r="AC3" t="n">
-        <v>553.6159469698972</v>
+        <v>705.5094016456844</v>
       </c>
       <c r="AD3" t="n">
-        <v>447308.2920613026</v>
+        <v>570034.5288292107</v>
       </c>
       <c r="AE3" t="n">
-        <v>612026.9390473757</v>
+        <v>779946.3904926716</v>
       </c>
       <c r="AF3" t="n">
         <v>8.806324792218374e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.59635416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>553615.9469698973</v>
+        <v>705509.4016456844</v>
       </c>
     </row>
   </sheetData>
@@ -14910,28 +14910,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>646.4869234994878</v>
+        <v>799.2977598478813</v>
       </c>
       <c r="AB2" t="n">
-        <v>884.5519297221546</v>
+        <v>1093.634457552332</v>
       </c>
       <c r="AC2" t="n">
-        <v>800.1315350259018</v>
+        <v>989.2595198491381</v>
       </c>
       <c r="AD2" t="n">
-        <v>646486.9234994878</v>
+        <v>799297.7598478813</v>
       </c>
       <c r="AE2" t="n">
-        <v>884551.9297221545</v>
+        <v>1093634.457552332</v>
       </c>
       <c r="AF2" t="n">
         <v>6.445897573282233e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>800131.5350259019</v>
+        <v>989259.5198491381</v>
       </c>
     </row>
     <row r="3">
@@ -15016,28 +15016,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>448.7972646840124</v>
+        <v>563.4566400734786</v>
       </c>
       <c r="AB3" t="n">
-        <v>614.0642170786032</v>
+        <v>770.946232901108</v>
       </c>
       <c r="AC3" t="n">
-        <v>555.4587900451621</v>
+        <v>697.3682064628593</v>
       </c>
       <c r="AD3" t="n">
-        <v>448797.2646840124</v>
+        <v>563456.6400734787</v>
       </c>
       <c r="AE3" t="n">
-        <v>614064.2170786032</v>
+        <v>770946.232901108</v>
       </c>
       <c r="AF3" t="n">
         <v>8.168536223433259e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.61328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>555458.7900451621</v>
+        <v>697368.2064628593</v>
       </c>
     </row>
     <row r="4">
@@ -15122,28 +15122,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>450.0011504916009</v>
+        <v>564.6605258810672</v>
       </c>
       <c r="AB4" t="n">
-        <v>615.7114267522393</v>
+        <v>772.5934425747441</v>
       </c>
       <c r="AC4" t="n">
-        <v>556.9487923394196</v>
+        <v>698.8582087571167</v>
       </c>
       <c r="AD4" t="n">
-        <v>450001.1504916009</v>
+        <v>564660.5258810672</v>
       </c>
       <c r="AE4" t="n">
-        <v>615711.4267522392</v>
+        <v>772593.4425747441</v>
       </c>
       <c r="AF4" t="n">
         <v>8.168536223433259e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.61328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>556948.7923394196</v>
+        <v>698858.2087571167</v>
       </c>
     </row>
   </sheetData>
